--- a/data/API.xlsx
+++ b/data/API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneeshc\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0EB5AC-67F2-4950-B39A-02E274AC64EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96669117-1B0E-4B8A-86DA-90B909C400B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
   <si>
     <t>Execution</t>
   </si>
@@ -184,10 +184,16 @@
     <t>{"Message":"The request is invalid."}</t>
   </si>
   <si>
-    <t>{'Message:'Subscription not found'}</t>
-  </si>
-  <si>
     <t>Ocp-Apim-Subscription-Key,FCFE91296EE4492BA5DDAC6143D8F48</t>
+  </si>
+  <si>
+    <t>Get Location By inValid Subscription</t>
+  </si>
+  <si>
+    <t>{"Message:'Subscription not found"}</t>
+  </si>
+  <si>
+    <t>[{"ID":"22640a4e-c445-4c07-b856-171a4470e214","ResellerID":"614cf1a4-cae7-4408-b6c3-c99c1c8d954f","BusinessUnitID":"c1f1f41e-9bab-4264-bdcf-a3701507a83b","AccountID":"d43c73b4-8fac-41d1-a897-d44b1d3e6e20","ClientRefID":"9130101","LocationID":"5e950b02-32ed-47e3-b5f4-77ac8e02af9","Value":{"_ts":0,"id":"5e950b02-32ed-47e3-b5f4-77ac8e02af90","_self":null,"PK":null,"HoursOfOperation":"Closed|11:00AM-03:00PM|12:00PM-07:00PM|11:00AM-06:30PM|11:00AM-07:00PM|Closed|09:00AM-01:00PM","ID":"5e950b02-32ed-47e3-b5f4-77ac8e02af90","ResellerID":"614cf1a4-cae7-4408-b6c3-c99c1c8d954f","ExternalReseller":false,"BusinessUnitID":"c1f1f41e-9bab-4264-bdcf-a3701507a83b","AccountID":"d43c73b4-8fac-41d1-a897-d44b1d3e6e20","LocationNumber":"9990310077","ClientRefID":"9130101","ParentAccountID":null,"KeyFields":{"Reference Code 2":"7829","Reference Code":"9130101","IsAnsweringServiceEnabled":"0","PhoneInquiry":"7057217973"},"OriginalJson":null,"BusinessStatus":0,"BusinessStatusModified":"0001-01-01T00:00:00","BusinessName":{"Name":"Sylvan Learning of Berrie","Type":null,"ShortName":null,"LongName":"Sylvan Learning of Bend","Locale":58,"DisplayMode":null,"Description":"Learning should be personal, and at Sylvan Learning of Bend, it is. Our tutors in the Berrie area do more than teach math, reading and writing. We motivate kids to succeed.","ShortDescription":"Our tutors in the Berrie area do more than teach math, reading and writing. We motivate kids to succeed.","LongDescription":"We’re Sylvan Learning of Berrie. Our tutors in Berrie use a personal approach and interactive technology to help kids learn math, reading, writing and more—turning B's into A's and frustration into confidence! Learn why families choose Sylvan Learning of Berrie for tutoring."},"AlternateNames":null,"MainAddress":{"StructuredAddress":false,"Address":null,"AddressNonStruct_Line1":"424 Penetanguishene Rd","AddressNonStruct_Line2":"Unit 10","AddressNonStruct_Line3":null,"AddressNonStruct_Line4":null,"AddressNonStruct_Line5":null,"Type":0,"Street":null,"Suite":null,"Neighborhood":null,"Locality":"Berrie","Region":"Ontario","RegionName":"Ontario","RegionCode":"ON","PostalCode":"L4M 0H2","CountryCode":"CA","POBox":null,"Address1":"424 Penetanguishene Rd","Address2":"Unit 10","DisplayMode":null,"VerificationData":null,"RawData":null},"DisplayPoint":null,"MainAddressVerified":null,"DisplayPointVerified":null,"AdditionalAddresses":null,"PhoneNumber":{"DisplayMode":null,"Number":"+17057217971","Type":0,"Name":null,"Description":null},"AlternatePhoneNumbers":null,"HomePageURL":"http://sylvanlearning.com","SocialMediaURLs":null,"HoursOfOpStruct":{"Su":{"Ranges":null,"State":1,"AdditionalInfo":null},"Mo":{"Ranges":[{"StartTime":"11:00AM","EndTime":"03:00PM"}],"State":0,"AdditionalInfo":null},"Tu":{"Ranges":[{"StartTime":"12:00PM","EndTime":"07:00PM"}],"State":0,"AdditionalInfo":null},"We":{"Ranges":[{"StartTime":"11:00AM","EndTime":"06:30PM"}],"State":0,"AdditionalInfo":null},"Th":{"Ranges":[{"StartTime":"11:00AM","EndTime":"07:00PM"}],"State":0,"AdditionalInfo":null},"Fr":{"Ranges":null,"State":1,"AdditionalInfo":null},"Sa":{"Ranges":[{"StartTime":"09:00AM","EndTime":"01:00PM"}],"State":0,"AdditionalInfo":null},"SpecialHours":null},"Categories":[{"DisplayMode":null,"Locale":58,"Name":"Tutoring Service","Type":"DAC Category","DisplayName":null,"Priority":1},{"DisplayMode":null,"Locale":58,"Name":"Learning Center","Type":"DAC Category","DisplayName":null,"Priority":2},{"DisplayMode":null,"Locale":58,"Name":"Education","Type":"DAC Category","DisplayName":null,"Priority":3},{"DisplayMode":null,"Locale":58,"Name":"Educational Consultant","Type":"DAC Category","DisplayName":null,"Priority":4}],"EntryPoints":null,"Chain":null,"Description":null,"Amenities":null,"PaymentMethods":null,"Status":0,"StatusModified":"0001-01-01T00:00:00","Verified":false,"Valid":false,"VersionCode":null,"CreatedBy":"SylvanAPI-BETA-Saliha","Created":"2018-10-30T14:50:30.8418443Z","ModifiedBy":"SylvanAPI-BETA-Saliha","Modified":"2018-10-30T14:50:30.8418443Z","DataSource":"DAC.LDM.SylvanService","AdditionalAddressLines":null,"MainContact":null,"PrimaryEmailAddress":"Bend.OR@sylvanlearning.com","PhotoURLs":null,"AdditionalMediaURLs":null,"OtherURLs":null,"Keywords_Specialties":null,"Credentials_Certifications":null,"Products":null,"Services":null,"Brands":null,"Year_Founded":null,"Professional_Associations":null,"Tags":null,"Employee_Size":null,"AreasServed":["Berrie"],"Languages":null,"AlternateHomePageURL":[{"Id":null,"URL":"http://locations.sylvanlearning.com/us/bend-or","Name":null,"DisplayName":null,"Description":null,"Error":null}],"VerificationSVCResults":null,"IsMainAddressTransfered":false,"CustomObjects":null},"Created":"2018-10-30T14:50:30.8418443","CreatedBy":"SylvanAPI-BETA-Saliha"},{"ID":"fc993eb0-417c-47a4-afa6-745f4ee8155e","ResellerID":"614cf1a4-cae7-4408-b6c3-c99c1c8d954f","BusinessUnitID":"c1f1f41e-9bab-4264-bdcf-a3701507a83b","AccountID":"d43c73b4-8fac-41d1-a897-d44b1d3e6e20","ClientRefID":"9130101","LocationID":"5e950b02-32ed-47e3-b5f4-77ac8e02af90","Value":{"_ts":0,"id":"5e950b02-32ed-47e3-b5f4-77ac8e02af90","_self":null,"PK":null,"HoursOfOperation":"Closed|11:00AM-03:00PM|12:00PM-07:00PM|11:00AM-06:30PM|11:00AM-07:00PM|Closed|09:00AM-01:00PM","ID":"5e950b02-32ed-47e3-b5f4-77ac8e02af90","ResellerID":"614cf1a4-cae7-4408-b6c3-c99c1c8d954f","ExternalReseller":false,"BusinessUnitID":"c1f1f41e-9bab-4264-bdcf-a3701507a83b","AccountID":"d43c73b4-8fac-41d1-a897-d44b1d3e6e20","LocationNumber":"9990310077","ClientRefID":"9130101","ParentAccountID":null,"KeyFields":{"Reference Code 2":"7829","Reference Code":"9130101","IsAnsweringServiceEnabled":"0","PhoneInquiry":"7057217973","AutoDisplayPoint":"{\"Description\":null,\"DisplayMode\":null,\"Navigation\":0,\"Precision\":0,\"Type\":0,\"VerificationType\":3,\"Latitude\":44.4212359,\"Longitude\":-79.6456053,\"Heading\":null,\"Pitch\":null,\"Zoom\":null,\"Pin\":null}"},"OriginalJson":null,"BusinessStatus":0,"BusinessStatusModified":"0001-01-01T00:00:00","BusinessName":{"Name":"Sylvan Learning of Berrie","Type":null,"ShortName":null,"LongName":"Sylvan Learning of Bend","Locale":58,"DisplayMode":null,"Description":"Learning should be personal, and at Sylvan Learning of Bend, it is. Our tutors in the Berrie area do more than teach math, reading and writing. We motivate kids to succeed.","ShortDescription":"Our tutors in the Berrie area do more than teach math, reading and writing. We motivate kids to succeed.","LongDescription":"We’re Sylvan Learning of Berrie. Our tutors in Berrie use a personal approach and interactive technology to help kids learn math, reading, writing and more—turning B's into A's and frustration into confidence! Learn why families choose Sylvan Learning of Berrie for tutoring."},"AlternateNames":null,"MainAddress":{"StructuredAddress":false,"Address":null,"AddressNonStruct_Line1":"424 Penetanguishene Rd","AddressNonStruct_Line2":"Unit 10","AddressNonStruct_Line3":null,"AddressNonStruct_Line4":null,"AddressNonStruct_Line5":null,"Type":0,"Street":null,"Suite":null,"Neighborhood":null,"Locality":"Berrie","Region":"Ontario","RegionName":"Ontario","RegionCode":"ON","PostalCode":"L4M 0H2","CountryCode":"CA","POBox":null,"Address1":"424 Penetanguishene Rd","Address2":"Unit 10","DisplayMode":null,"VerificationData":{"VerificationMajorErrors":{"AE01":"The Postal Code does not exist and could not be determined by the city/municipality and state/province."},"VerificationNonMajorErrors":{},"ValidateAddress":{"Address1":"424 Penetanguishene Rd","Address2":"Unit 10","Company":" ","City":"Berrie","State":"ON","Zip":"L4M 0H2","Plus4":" ","Country":"CA","Range":"424","StreetName":"Penetanguishene","Suffix":"Rd","PreDirection":" ","PostDirection":" ","SuiteName":"Unit","SuiteNumber":"10","PMBName":" ","PMBNumber":" ","UName":" ","DPC":" ","DPCD":" ","CarrierRoute":" ","AddKey":"L4M0H2","Congressiona":" "},"VerificationEngine":"MelissaRequestUSCA","VerificationDate":"2018-10-30T14:50:36.2661458+00:00","Username":null},"RawData":"{\"StructuredAddress\":false,\"Address\":null,\"AddressNonStruct_Line1\":\"424 Penetanguishene Rd\",\"AddressNonStruct_Line2\":\"Unit 10\",\"AddressNonStruct_Line3\":null,\"AddressNonStruct_Line4\":null,\"AddressNonStruct_Line5\":null,\"Type\":0,\"Street\":null,\"Suite\":null,\"Neighborhood\":null,\"Locality\":\"Berrie\",\"Region\":\"Ontario\",\"RegionName\":null,\"RegionCode\":\"ON\",\"PostalCode\":\"L4M 0H2\",\"CountryCode\":\"CA\",\"POBox\":null,\"Address1\":\"424 Penetanguishene Rd\",\"Address2\":\"Unit 10\",\"DisplayMode\":null,\"VerificationData\":null,\"RawData\":null}"},"DisplayPoint":{"Description":null,"DisplayMode":null,"Navigation":0,"Precision":0,"Type":0,"VerificationType":3,"Latitude":44.421235,"Longitude":-79.645605,"Heading":null,"Pitch":null,"Zoom":null,"Pin":{"type":"Point","coordinates":[-79.645605,44.421235]}},"MainAddressVerified":null,"DisplayPointVerified":null,"AdditionalAddresses":null,"PhoneNumber":{"DisplayMode":null,"Number":"+17057217971","Type":0,"Name":null,"Description":null},"AlternatePhoneNumbers":null,"HomePageURL":"http://sylvanlearning.com","SocialMediaURLs":null,"HoursOfOpStruct":{"Su":{"Ranges":null,"State":1,"AdditionalInfo":null},"Mo":{"Ranges":[{"StartTime":"11:00AM","EndTime":"03:00PM"}],"State":0,"AdditionalInfo":null},"Tu":{"Ranges":[{"StartTime":"12:00PM","EndTime":"07:00PM"}],"State":0,"AdditionalInfo":null},"We":{"Ranges":[{"StartTime":"11:00AM","EndTime":"06:30PM"}],"State":0,"AdditionalInfo":null},"Th":{"Ranges":[{"StartTime":"11:00AM","EndTime":"07:00PM"}],"State":0,"AdditionalInfo":null},"Fr":{"Ranges":null,"State":1,"AdditionalInfo":null},"Sa":{"Ranges":[{"StartTime":"09:00AM","EndTime":"01:00PM"}],"State":0,"AdditionalInfo":null},"SpecialHours":null},"Categories":[{"DisplayMode":null,"Locale":58,"Name":"Tutoring Service","Type":"DAC Category","DisplayName":null,"Priority":1},{"DisplayMode":null,"Locale":58,"Name":"Learning Center","Type":"DAC Category","DisplayName":null,"Priority":2},{"DisplayMode":null,"Locale":58,"Name":"Education","Type":"DAC Category","DisplayName":null,"Priority":3},{"DisplayMode":null,"Locale":58,"Name":"Educational Consultant","Type":"DAC Category","DisplayName":null,"Priority":4}],"EntryPoints":null,"Chain":null,"Description":null,"Amenities":null,"PaymentMethods":null,"Status":0,"StatusModified":"0001-01-01T00:00:00","Verified":false,"Valid":false,"VersionCode":null,"CreatedBy":"SylvanAPI-BETA-Saliha","Created":"2018-10-30T14:50:30.8418443Z","ModifiedBy":"SylvanAPI-BETA-Saliha","Modified":"2018-10-30T14:50:38.9983524Z","DataSource":"DAC.LDM.SylvanService_LDMPP","AdditionalAddressLines":null,"MainContact":null,"PrimaryEmailAddress":"Bend.OR@sylvanlearning.com","PhotoURLs":null,"AdditionalMediaURLs":null,"OtherURLs":null,"Keywords_Specialties":null,"Credentials_Certifications":null,"Products":null,"Services":null,"Brands":null,"Year_Founded":null,"Professional_Associations":null,"Tags":null,"Employee_Size":null,"AreasServed":["Berrie"],"Languages":null,"AlternateHomePageURL":[{"Id":null,"URL":"http://locations.sylvanlearning.com/us/bend-or","Name":null,"DisplayName":null,"Description":null,"Error":null}],"VerificationSVCResults":null,"IsMainAddressTransfered":false,"CustomObjects":null},"Created":"2018-10-30T14:50:38.9983524","CreatedBy":"SylvanAPI-BETA-Saliha"},{"ID":"698ccecd-2f16-4832-bef8-8cab7901e8f2","ResellerID":"614cf1a4-cae7-4408-b6c3-c99c1c8d954f","BusinessUnitID":"c1f1f41e-9bab-4264-bdcf-a3701507a83b","AccountID":"d43c73b4-8fac-41d1-a897-d44b1d3e6e20","ClientRefID":"9130101","LocationID":"5e950b02-32ed-47e3-b5f4-77ac8e02af90","Value":{"_ts":0,"id":"5e950b02-32ed-47e3-b5f4-77ac8e02af90","_self":null,"PK":null,"HoursOfOperation":"Closed|11:00AM-03:00PM|12:00PM-07:00PM|11:00AM-06:30PM|11:00AM-07:00PM|Closed|09:00AM-01:00PM","ID":"5e950b02-32ed-47e3-b5f4-77ac8e02af90","ResellerID":"614cf1a4-cae7-4408-b6c3-c99c1c8d954f","ExternalReseller":false,"BusinessUnitID":"c1f1f41e-9bab-4264-bdcf-a3701507a83b","AccountID":"d43c73b4-8fac-41d1-a897-d44b1d3e6e20","LocationNumber":"9990310077","ClientRefID":"9130101","ParentAccountID":null,"KeyFields":{"Reference Code 2":"7829","Reference Code":"9130101","IsAnsweringServiceEnabled":"0","PhoneInquiry":"7057217973","AutoDisplayPoint":"{\"Description\":null,\"DisplayMode\":null,\"Navigation\":0,\"Precision\":0,\"Type\":0,\"VerificationType\":3,\"Latitude\":44.4212359,\"Longitude\":-79.6456053,\"Heading\":null,\"Pitch\":null,\"Zoom\":null,\"Pin\":null}"},"OriginalJson":null,"BusinessStatus":1,"BusinessStatusModified":"0001-01-01T00:00:00","BusinessName":{"Name":"Sylvan Learning of Berrie","Type":null,"ShortName":null,"LongName":"Sylvan Learning of Bend","Locale":58,"DisplayMode":null,"Description":"Learning should be personal, and at Sylvan Learning of Bend, it is. Our tutors in the Berrie area do more than teach math, reading and writing. We motivate kids to succeed.","ShortDescription":"Our tutors in the Berrie area do more than teach math, reading and writing. We motivate kids to succeed.","LongDescription":"We’re Sylvan Learning of Berrie. Our tutors in Berrie use a personal approach and interactive technology to help kids learn math, reading, writing and more—turning B's into A's and frustration into confidence! Learn why families choose Sylvan Learning of Berrie for tutoring."},"AlternateNames":null,"MainAddress":{"StructuredAddress":false,"Address":null,"AddressNonStruct_Line1":"424 Penetanguishene Rd","AddressNonStruct_Line2":"Unit 10","AddressNonStruct_Line3":null,"AddressNonStruct_Line4":null,"AddressNonStruct_Line5":null,"Type":0,"Street":null,"Suite":null,"Neighborhood":null,"Locality":"Berrie","Region":"Ontario","RegionName":"Ontario","RegionCode":"ON","PostalCode":"L4M 0H2","CountryCode":"CA","POBox":null,"Address1":"424 Penetanguishene Rd","Address2":"Unit 10","DisplayMode":null,"VerificationData":{"VerificationMajorErrors":{"AE01":"The Postal Code does not exist and could not be determined by the city/municipality and state/province."},"VerificationNonMajorErrors":{},"ValidateAddress":{"Address1":"424 Penetanguishene Rd","Address2":"Unit 10","Company":" ","City":"Berrie","State":"ON","Zip":"L4M 0H2","Plus4":" ","Country":"CA","Range":"424","StreetName":"Penetanguishene","Suffix":"Rd","PreDirection":" ","PostDirection":" ","SuiteName":"Unit","SuiteNumber":"10","PMBName":" ","PMBNumber":" ","UName":" ","DPC":" ","DPCD":" ","CarrierRoute":" ","AddKey":"L4M0H2","Congressiona":" "},"VerificationEngine":"MelissaRequestUSCA","VerificationDate":"2018-10-30T14:50:36.2661458+00:00","Username":null},"RawData":"{\"StructuredAddress\":false,\"Address\":null,\"AddressNonStruct_Line1\":\"424 Penetanguishene Rd\",\"AddressNonStruct_Line2\":\"Unit 10\",\"AddressNonStruct_Line3\":null,\"AddressNonStruct_Line4\":null,\"AddressNonStruct_Line5\":null,\"Type\":0,\"Street\":null,\"Suite\":null,\"Neighborhood\":null,\"Locality\":\"Berrie\",\"Region\":\"Ontario\",\"RegionName\":null,\"RegionCode\":\"ON\",\"PostalCode\":\"L4M 0H2\",\"CountryCode\":\"CA\",\"POBox\":null,\"Address1\":\"424 Penetanguishene Rd\",\"Address2\":\"Unit 10\",\"DisplayMode\":null,\"VerificationData\":null,\"RawData\":null}"},"DisplayPoint":{"Description":null,"DisplayMode":null,"Navigation":0,"Precision":0,"Type":0,"VerificationType":3,"Latitude":44.421235,"Longitude":-79.645605,"Heading":null,"Pitch":null,"Zoom":null,"Pin":{"type":"Point","coordinates":[-79.645605,44.421235]}},"MainAddressVerified":null,"DisplayPointVerified":null,"AdditionalAddresses":null,"PhoneNumber":{"DisplayMode":null,"Number":"+17057217971","Type":0,"Name":null,"Description":null},"AlternatePhoneNumbers":null,"HomePageURL":"http://sylvanlearning.com","SocialMediaURLs":null,"HoursOfOpStruct":{"Su":{"Ranges":null,"State":1,"AdditionalInfo":null},"Mo":{"Ranges":[{"StartTime":"11:00AM","EndTime":"03:00PM"}],"State":0,"AdditionalInfo":null},"Tu":{"Ranges":[{"StartTime":"12:00PM","EndTime":"07:00PM"}],"State":0,"AdditionalInfo":null},"We":{"Ranges":[{"StartTime":"11:00AM","EndTime":"06:30PM"}],"State":0,"AdditionalInfo":null},"Th":{"Ranges":[{"StartTime":"11:00AM","EndTime":"07:00PM"}],"State":0,"AdditionalInfo":null},"Fr":{"Ranges":null,"State":1,"AdditionalInfo":null},"Sa":{"Ranges":[{"StartTime":"09:00AM","EndTime":"01:00PM"}],"State":0,"AdditionalInfo":null},"SpecialHours":null},"Categories":[{"DisplayMode":null,"Locale":58,"Name":"Tutoring Service","Type":"DAC Category","DisplayName":null,"Priority":1},{"DisplayMode":null,"Locale":58,"Name":"Learning Center","Type":"DAC Category","DisplayName":null,"Priority":2},{"DisplayMode":null,"Locale":58,"Name":"Education","Type":"DAC Category","DisplayName":null,"Priority":3},{"DisplayMode":null,"Locale":58,"Name":"Educational Consultant","Type":"DAC Category","DisplayName":null,"Priority":4}],"EntryPoints":null,"Chain":null,"Description":null,"Amenities":null,"PaymentMethods":null,"Status":0,"StatusModified":"0001-01-01T00:00:00","Verified":false,"Valid":false,"VersionCode":null,"CreatedBy":"SylvanAPI-BETA-Saliha","Created":"2018-10-30T14:50:30.8418443Z","ModifiedBy":"SylvanAPI-BEta","Modified":"2019-03-27T17:24:19.851789Z","DataSource":"DAC.LDM.SylvanService","AdditionalAddressLines":null,"MainContact":null,"PrimaryEmailAddress":"Bend.OR@sylvanlearning.com","PhotoURLs":null,"AdditionalMediaURLs":null,"OtherURLs":null,"Keywords_Specialties":null,"Credentials_Certifications":null,"Products":null,"Services":null,"Brands":null,"Year_Founded":null,"Professional_Associations":null,"Tags":null,"Employee_Size":null,"AreasServed":["Berrie"],"Languages":null,"AlternateHomePageURL":[{"Id":null,"URL":"http://locations.sylvanlearning.com/us/bend-or","Name":null,"DisplayName":null,"Description":null,"Error":null}],"VerificationSVCResults":null,"IsMainAddressTransfered":false,"CustomObjects":null},"Created":"2019-03-27T17:24:19.851789","CreatedBy":"SylvanAPI-BEta"}]</t>
   </si>
 </sst>
 </file>
@@ -776,19 +782,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.28515625" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="66.140625" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" customWidth="1"/>
-    <col min="5" max="5" width="45.42578125" customWidth="1"/>
-    <col min="6" max="6" width="42.5703125" customWidth="1"/>
-    <col min="7" max="7" width="53.7109375" customWidth="1"/>
+    <col min="3" max="3" width="56.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
     <col min="16" max="16" width="11.42578125" customWidth="1"/>
   </cols>
@@ -833,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>1</v>
@@ -986,7 +992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>27</v>
       </c>
@@ -1000,7 +1006,7 @@
         <v>30</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -1040,7 +1046,7 @@
       <c r="B18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -1052,7 +1058,7 @@
       <c r="F18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="12" t="s">
         <v>49</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -1084,13 +1090,13 @@
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>45</v>
@@ -1099,7 +1105,7 @@
         <v>29</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>22</v>
@@ -1121,8 +1127,10 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{33CCA2F2-AE32-4F9A-B4EE-DBF3CADB6322}"/>
+    <hyperlink ref="C18" r:id="rId2" xr:uid="{20B05BF1-F73A-4285-A159-0F012A8EA3FA}"/>
+    <hyperlink ref="C20" r:id="rId3" xr:uid="{98229763-330C-48B5-A07D-2611C74DFE87}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/data/API.xlsx
+++ b/data/API.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneeshc\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96669117-1B0E-4B8A-86DA-90B909C400B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31FAE77-17BE-4A8C-A669-3B5A362682D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="DataAnywhere" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="67">
   <si>
     <t>Execution</t>
   </si>
@@ -194,6 +195,42 @@
   </si>
   <si>
     <t>[{"ID":"22640a4e-c445-4c07-b856-171a4470e214","ResellerID":"614cf1a4-cae7-4408-b6c3-c99c1c8d954f","BusinessUnitID":"c1f1f41e-9bab-4264-bdcf-a3701507a83b","AccountID":"d43c73b4-8fac-41d1-a897-d44b1d3e6e20","ClientRefID":"9130101","LocationID":"5e950b02-32ed-47e3-b5f4-77ac8e02af9","Value":{"_ts":0,"id":"5e950b02-32ed-47e3-b5f4-77ac8e02af90","_self":null,"PK":null,"HoursOfOperation":"Closed|11:00AM-03:00PM|12:00PM-07:00PM|11:00AM-06:30PM|11:00AM-07:00PM|Closed|09:00AM-01:00PM","ID":"5e950b02-32ed-47e3-b5f4-77ac8e02af90","ResellerID":"614cf1a4-cae7-4408-b6c3-c99c1c8d954f","ExternalReseller":false,"BusinessUnitID":"c1f1f41e-9bab-4264-bdcf-a3701507a83b","AccountID":"d43c73b4-8fac-41d1-a897-d44b1d3e6e20","LocationNumber":"9990310077","ClientRefID":"9130101","ParentAccountID":null,"KeyFields":{"Reference Code 2":"7829","Reference Code":"9130101","IsAnsweringServiceEnabled":"0","PhoneInquiry":"7057217973"},"OriginalJson":null,"BusinessStatus":0,"BusinessStatusModified":"0001-01-01T00:00:00","BusinessName":{"Name":"Sylvan Learning of Berrie","Type":null,"ShortName":null,"LongName":"Sylvan Learning of Bend","Locale":58,"DisplayMode":null,"Description":"Learning should be personal, and at Sylvan Learning of Bend, it is. Our tutors in the Berrie area do more than teach math, reading and writing. We motivate kids to succeed.","ShortDescription":"Our tutors in the Berrie area do more than teach math, reading and writing. We motivate kids to succeed.","LongDescription":"We’re Sylvan Learning of Berrie. Our tutors in Berrie use a personal approach and interactive technology to help kids learn math, reading, writing and more—turning B's into A's and frustration into confidence! Learn why families choose Sylvan Learning of Berrie for tutoring."},"AlternateNames":null,"MainAddress":{"StructuredAddress":false,"Address":null,"AddressNonStruct_Line1":"424 Penetanguishene Rd","AddressNonStruct_Line2":"Unit 10","AddressNonStruct_Line3":null,"AddressNonStruct_Line4":null,"AddressNonStruct_Line5":null,"Type":0,"Street":null,"Suite":null,"Neighborhood":null,"Locality":"Berrie","Region":"Ontario","RegionName":"Ontario","RegionCode":"ON","PostalCode":"L4M 0H2","CountryCode":"CA","POBox":null,"Address1":"424 Penetanguishene Rd","Address2":"Unit 10","DisplayMode":null,"VerificationData":null,"RawData":null},"DisplayPoint":null,"MainAddressVerified":null,"DisplayPointVerified":null,"AdditionalAddresses":null,"PhoneNumber":{"DisplayMode":null,"Number":"+17057217971","Type":0,"Name":null,"Description":null},"AlternatePhoneNumbers":null,"HomePageURL":"http://sylvanlearning.com","SocialMediaURLs":null,"HoursOfOpStruct":{"Su":{"Ranges":null,"State":1,"AdditionalInfo":null},"Mo":{"Ranges":[{"StartTime":"11:00AM","EndTime":"03:00PM"}],"State":0,"AdditionalInfo":null},"Tu":{"Ranges":[{"StartTime":"12:00PM","EndTime":"07:00PM"}],"State":0,"AdditionalInfo":null},"We":{"Ranges":[{"StartTime":"11:00AM","EndTime":"06:30PM"}],"State":0,"AdditionalInfo":null},"Th":{"Ranges":[{"StartTime":"11:00AM","EndTime":"07:00PM"}],"State":0,"AdditionalInfo":null},"Fr":{"Ranges":null,"State":1,"AdditionalInfo":null},"Sa":{"Ranges":[{"StartTime":"09:00AM","EndTime":"01:00PM"}],"State":0,"AdditionalInfo":null},"SpecialHours":null},"Categories":[{"DisplayMode":null,"Locale":58,"Name":"Tutoring Service","Type":"DAC Category","DisplayName":null,"Priority":1},{"DisplayMode":null,"Locale":58,"Name":"Learning Center","Type":"DAC Category","DisplayName":null,"Priority":2},{"DisplayMode":null,"Locale":58,"Name":"Education","Type":"DAC Category","DisplayName":null,"Priority":3},{"DisplayMode":null,"Locale":58,"Name":"Educational Consultant","Type":"DAC Category","DisplayName":null,"Priority":4}],"EntryPoints":null,"Chain":null,"Description":null,"Amenities":null,"PaymentMethods":null,"Status":0,"StatusModified":"0001-01-01T00:00:00","Verified":false,"Valid":false,"VersionCode":null,"CreatedBy":"SylvanAPI-BETA-Saliha","Created":"2018-10-30T14:50:30.8418443Z","ModifiedBy":"SylvanAPI-BETA-Saliha","Modified":"2018-10-30T14:50:30.8418443Z","DataSource":"DAC.LDM.SylvanService","AdditionalAddressLines":null,"MainContact":null,"PrimaryEmailAddress":"Bend.OR@sylvanlearning.com","PhotoURLs":null,"AdditionalMediaURLs":null,"OtherURLs":null,"Keywords_Specialties":null,"Credentials_Certifications":null,"Products":null,"Services":null,"Brands":null,"Year_Founded":null,"Professional_Associations":null,"Tags":null,"Employee_Size":null,"AreasServed":["Berrie"],"Languages":null,"AlternateHomePageURL":[{"Id":null,"URL":"http://locations.sylvanlearning.com/us/bend-or","Name":null,"DisplayName":null,"Description":null,"Error":null}],"VerificationSVCResults":null,"IsMainAddressTransfered":false,"CustomObjects":null},"Created":"2018-10-30T14:50:30.8418443","CreatedBy":"SylvanAPI-BETA-Saliha"},{"ID":"fc993eb0-417c-47a4-afa6-745f4ee8155e","ResellerID":"614cf1a4-cae7-4408-b6c3-c99c1c8d954f","BusinessUnitID":"c1f1f41e-9bab-4264-bdcf-a3701507a83b","AccountID":"d43c73b4-8fac-41d1-a897-d44b1d3e6e20","ClientRefID":"9130101","LocationID":"5e950b02-32ed-47e3-b5f4-77ac8e02af90","Value":{"_ts":0,"id":"5e950b02-32ed-47e3-b5f4-77ac8e02af90","_self":null,"PK":null,"HoursOfOperation":"Closed|11:00AM-03:00PM|12:00PM-07:00PM|11:00AM-06:30PM|11:00AM-07:00PM|Closed|09:00AM-01:00PM","ID":"5e950b02-32ed-47e3-b5f4-77ac8e02af90","ResellerID":"614cf1a4-cae7-4408-b6c3-c99c1c8d954f","ExternalReseller":false,"BusinessUnitID":"c1f1f41e-9bab-4264-bdcf-a3701507a83b","AccountID":"d43c73b4-8fac-41d1-a897-d44b1d3e6e20","LocationNumber":"9990310077","ClientRefID":"9130101","ParentAccountID":null,"KeyFields":{"Reference Code 2":"7829","Reference Code":"9130101","IsAnsweringServiceEnabled":"0","PhoneInquiry":"7057217973","AutoDisplayPoint":"{\"Description\":null,\"DisplayMode\":null,\"Navigation\":0,\"Precision\":0,\"Type\":0,\"VerificationType\":3,\"Latitude\":44.4212359,\"Longitude\":-79.6456053,\"Heading\":null,\"Pitch\":null,\"Zoom\":null,\"Pin\":null}"},"OriginalJson":null,"BusinessStatus":0,"BusinessStatusModified":"0001-01-01T00:00:00","BusinessName":{"Name":"Sylvan Learning of Berrie","Type":null,"ShortName":null,"LongName":"Sylvan Learning of Bend","Locale":58,"DisplayMode":null,"Description":"Learning should be personal, and at Sylvan Learning of Bend, it is. Our tutors in the Berrie area do more than teach math, reading and writing. We motivate kids to succeed.","ShortDescription":"Our tutors in the Berrie area do more than teach math, reading and writing. We motivate kids to succeed.","LongDescription":"We’re Sylvan Learning of Berrie. Our tutors in Berrie use a personal approach and interactive technology to help kids learn math, reading, writing and more—turning B's into A's and frustration into confidence! Learn why families choose Sylvan Learning of Berrie for tutoring."},"AlternateNames":null,"MainAddress":{"StructuredAddress":false,"Address":null,"AddressNonStruct_Line1":"424 Penetanguishene Rd","AddressNonStruct_Line2":"Unit 10","AddressNonStruct_Line3":null,"AddressNonStruct_Line4":null,"AddressNonStruct_Line5":null,"Type":0,"Street":null,"Suite":null,"Neighborhood":null,"Locality":"Berrie","Region":"Ontario","RegionName":"Ontario","RegionCode":"ON","PostalCode":"L4M 0H2","CountryCode":"CA","POBox":null,"Address1":"424 Penetanguishene Rd","Address2":"Unit 10","DisplayMode":null,"VerificationData":{"VerificationMajorErrors":{"AE01":"The Postal Code does not exist and could not be determined by the city/municipality and state/province."},"VerificationNonMajorErrors":{},"ValidateAddress":{"Address1":"424 Penetanguishene Rd","Address2":"Unit 10","Company":" ","City":"Berrie","State":"ON","Zip":"L4M 0H2","Plus4":" ","Country":"CA","Range":"424","StreetName":"Penetanguishene","Suffix":"Rd","PreDirection":" ","PostDirection":" ","SuiteName":"Unit","SuiteNumber":"10","PMBName":" ","PMBNumber":" ","UName":" ","DPC":" ","DPCD":" ","CarrierRoute":" ","AddKey":"L4M0H2","Congressiona":" "},"VerificationEngine":"MelissaRequestUSCA","VerificationDate":"2018-10-30T14:50:36.2661458+00:00","Username":null},"RawData":"{\"StructuredAddress\":false,\"Address\":null,\"AddressNonStruct_Line1\":\"424 Penetanguishene Rd\",\"AddressNonStruct_Line2\":\"Unit 10\",\"AddressNonStruct_Line3\":null,\"AddressNonStruct_Line4\":null,\"AddressNonStruct_Line5\":null,\"Type\":0,\"Street\":null,\"Suite\":null,\"Neighborhood\":null,\"Locality\":\"Berrie\",\"Region\":\"Ontario\",\"RegionName\":null,\"RegionCode\":\"ON\",\"PostalCode\":\"L4M 0H2\",\"CountryCode\":\"CA\",\"POBox\":null,\"Address1\":\"424 Penetanguishene Rd\",\"Address2\":\"Unit 10\",\"DisplayMode\":null,\"VerificationData\":null,\"RawData\":null}"},"DisplayPoint":{"Description":null,"DisplayMode":null,"Navigation":0,"Precision":0,"Type":0,"VerificationType":3,"Latitude":44.421235,"Longitude":-79.645605,"Heading":null,"Pitch":null,"Zoom":null,"Pin":{"type":"Point","coordinates":[-79.645605,44.421235]}},"MainAddressVerified":null,"DisplayPointVerified":null,"AdditionalAddresses":null,"PhoneNumber":{"DisplayMode":null,"Number":"+17057217971","Type":0,"Name":null,"Description":null},"AlternatePhoneNumbers":null,"HomePageURL":"http://sylvanlearning.com","SocialMediaURLs":null,"HoursOfOpStruct":{"Su":{"Ranges":null,"State":1,"AdditionalInfo":null},"Mo":{"Ranges":[{"StartTime":"11:00AM","EndTime":"03:00PM"}],"State":0,"AdditionalInfo":null},"Tu":{"Ranges":[{"StartTime":"12:00PM","EndTime":"07:00PM"}],"State":0,"AdditionalInfo":null},"We":{"Ranges":[{"StartTime":"11:00AM","EndTime":"06:30PM"}],"State":0,"AdditionalInfo":null},"Th":{"Ranges":[{"StartTime":"11:00AM","EndTime":"07:00PM"}],"State":0,"AdditionalInfo":null},"Fr":{"Ranges":null,"State":1,"AdditionalInfo":null},"Sa":{"Ranges":[{"StartTime":"09:00AM","EndTime":"01:00PM"}],"State":0,"AdditionalInfo":null},"SpecialHours":null},"Categories":[{"DisplayMode":null,"Locale":58,"Name":"Tutoring Service","Type":"DAC Category","DisplayName":null,"Priority":1},{"DisplayMode":null,"Locale":58,"Name":"Learning Center","Type":"DAC Category","DisplayName":null,"Priority":2},{"DisplayMode":null,"Locale":58,"Name":"Education","Type":"DAC Category","DisplayName":null,"Priority":3},{"DisplayMode":null,"Locale":58,"Name":"Educational Consultant","Type":"DAC Category","DisplayName":null,"Priority":4}],"EntryPoints":null,"Chain":null,"Description":null,"Amenities":null,"PaymentMethods":null,"Status":0,"StatusModified":"0001-01-01T00:00:00","Verified":false,"Valid":false,"VersionCode":null,"CreatedBy":"SylvanAPI-BETA-Saliha","Created":"2018-10-30T14:50:30.8418443Z","ModifiedBy":"SylvanAPI-BETA-Saliha","Modified":"2018-10-30T14:50:38.9983524Z","DataSource":"DAC.LDM.SylvanService_LDMPP","AdditionalAddressLines":null,"MainContact":null,"PrimaryEmailAddress":"Bend.OR@sylvanlearning.com","PhotoURLs":null,"AdditionalMediaURLs":null,"OtherURLs":null,"Keywords_Specialties":null,"Credentials_Certifications":null,"Products":null,"Services":null,"Brands":null,"Year_Founded":null,"Professional_Associations":null,"Tags":null,"Employee_Size":null,"AreasServed":["Berrie"],"Languages":null,"AlternateHomePageURL":[{"Id":null,"URL":"http://locations.sylvanlearning.com/us/bend-or","Name":null,"DisplayName":null,"Description":null,"Error":null}],"VerificationSVCResults":null,"IsMainAddressTransfered":false,"CustomObjects":null},"Created":"2018-10-30T14:50:38.9983524","CreatedBy":"SylvanAPI-BETA-Saliha"},{"ID":"698ccecd-2f16-4832-bef8-8cab7901e8f2","ResellerID":"614cf1a4-cae7-4408-b6c3-c99c1c8d954f","BusinessUnitID":"c1f1f41e-9bab-4264-bdcf-a3701507a83b","AccountID":"d43c73b4-8fac-41d1-a897-d44b1d3e6e20","ClientRefID":"9130101","LocationID":"5e950b02-32ed-47e3-b5f4-77ac8e02af90","Value":{"_ts":0,"id":"5e950b02-32ed-47e3-b5f4-77ac8e02af90","_self":null,"PK":null,"HoursOfOperation":"Closed|11:00AM-03:00PM|12:00PM-07:00PM|11:00AM-06:30PM|11:00AM-07:00PM|Closed|09:00AM-01:00PM","ID":"5e950b02-32ed-47e3-b5f4-77ac8e02af90","ResellerID":"614cf1a4-cae7-4408-b6c3-c99c1c8d954f","ExternalReseller":false,"BusinessUnitID":"c1f1f41e-9bab-4264-bdcf-a3701507a83b","AccountID":"d43c73b4-8fac-41d1-a897-d44b1d3e6e20","LocationNumber":"9990310077","ClientRefID":"9130101","ParentAccountID":null,"KeyFields":{"Reference Code 2":"7829","Reference Code":"9130101","IsAnsweringServiceEnabled":"0","PhoneInquiry":"7057217973","AutoDisplayPoint":"{\"Description\":null,\"DisplayMode\":null,\"Navigation\":0,\"Precision\":0,\"Type\":0,\"VerificationType\":3,\"Latitude\":44.4212359,\"Longitude\":-79.6456053,\"Heading\":null,\"Pitch\":null,\"Zoom\":null,\"Pin\":null}"},"OriginalJson":null,"BusinessStatus":1,"BusinessStatusModified":"0001-01-01T00:00:00","BusinessName":{"Name":"Sylvan Learning of Berrie","Type":null,"ShortName":null,"LongName":"Sylvan Learning of Bend","Locale":58,"DisplayMode":null,"Description":"Learning should be personal, and at Sylvan Learning of Bend, it is. Our tutors in the Berrie area do more than teach math, reading and writing. We motivate kids to succeed.","ShortDescription":"Our tutors in the Berrie area do more than teach math, reading and writing. We motivate kids to succeed.","LongDescription":"We’re Sylvan Learning of Berrie. Our tutors in Berrie use a personal approach and interactive technology to help kids learn math, reading, writing and more—turning B's into A's and frustration into confidence! Learn why families choose Sylvan Learning of Berrie for tutoring."},"AlternateNames":null,"MainAddress":{"StructuredAddress":false,"Address":null,"AddressNonStruct_Line1":"424 Penetanguishene Rd","AddressNonStruct_Line2":"Unit 10","AddressNonStruct_Line3":null,"AddressNonStruct_Line4":null,"AddressNonStruct_Line5":null,"Type":0,"Street":null,"Suite":null,"Neighborhood":null,"Locality":"Berrie","Region":"Ontario","RegionName":"Ontario","RegionCode":"ON","PostalCode":"L4M 0H2","CountryCode":"CA","POBox":null,"Address1":"424 Penetanguishene Rd","Address2":"Unit 10","DisplayMode":null,"VerificationData":{"VerificationMajorErrors":{"AE01":"The Postal Code does not exist and could not be determined by the city/municipality and state/province."},"VerificationNonMajorErrors":{},"ValidateAddress":{"Address1":"424 Penetanguishene Rd","Address2":"Unit 10","Company":" ","City":"Berrie","State":"ON","Zip":"L4M 0H2","Plus4":" ","Country":"CA","Range":"424","StreetName":"Penetanguishene","Suffix":"Rd","PreDirection":" ","PostDirection":" ","SuiteName":"Unit","SuiteNumber":"10","PMBName":" ","PMBNumber":" ","UName":" ","DPC":" ","DPCD":" ","CarrierRoute":" ","AddKey":"L4M0H2","Congressiona":" "},"VerificationEngine":"MelissaRequestUSCA","VerificationDate":"2018-10-30T14:50:36.2661458+00:00","Username":null},"RawData":"{\"StructuredAddress\":false,\"Address\":null,\"AddressNonStruct_Line1\":\"424 Penetanguishene Rd\",\"AddressNonStruct_Line2\":\"Unit 10\",\"AddressNonStruct_Line3\":null,\"AddressNonStruct_Line4\":null,\"AddressNonStruct_Line5\":null,\"Type\":0,\"Street\":null,\"Suite\":null,\"Neighborhood\":null,\"Locality\":\"Berrie\",\"Region\":\"Ontario\",\"RegionName\":null,\"RegionCode\":\"ON\",\"PostalCode\":\"L4M 0H2\",\"CountryCode\":\"CA\",\"POBox\":null,\"Address1\":\"424 Penetanguishene Rd\",\"Address2\":\"Unit 10\",\"DisplayMode\":null,\"VerificationData\":null,\"RawData\":null}"},"DisplayPoint":{"Description":null,"DisplayMode":null,"Navigation":0,"Precision":0,"Type":0,"VerificationType":3,"Latitude":44.421235,"Longitude":-79.645605,"Heading":null,"Pitch":null,"Zoom":null,"Pin":{"type":"Point","coordinates":[-79.645605,44.421235]}},"MainAddressVerified":null,"DisplayPointVerified":null,"AdditionalAddresses":null,"PhoneNumber":{"DisplayMode":null,"Number":"+17057217971","Type":0,"Name":null,"Description":null},"AlternatePhoneNumbers":null,"HomePageURL":"http://sylvanlearning.com","SocialMediaURLs":null,"HoursOfOpStruct":{"Su":{"Ranges":null,"State":1,"AdditionalInfo":null},"Mo":{"Ranges":[{"StartTime":"11:00AM","EndTime":"03:00PM"}],"State":0,"AdditionalInfo":null},"Tu":{"Ranges":[{"StartTime":"12:00PM","EndTime":"07:00PM"}],"State":0,"AdditionalInfo":null},"We":{"Ranges":[{"StartTime":"11:00AM","EndTime":"06:30PM"}],"State":0,"AdditionalInfo":null},"Th":{"Ranges":[{"StartTime":"11:00AM","EndTime":"07:00PM"}],"State":0,"AdditionalInfo":null},"Fr":{"Ranges":null,"State":1,"AdditionalInfo":null},"Sa":{"Ranges":[{"StartTime":"09:00AM","EndTime":"01:00PM"}],"State":0,"AdditionalInfo":null},"SpecialHours":null},"Categories":[{"DisplayMode":null,"Locale":58,"Name":"Tutoring Service","Type":"DAC Category","DisplayName":null,"Priority":1},{"DisplayMode":null,"Locale":58,"Name":"Learning Center","Type":"DAC Category","DisplayName":null,"Priority":2},{"DisplayMode":null,"Locale":58,"Name":"Education","Type":"DAC Category","DisplayName":null,"Priority":3},{"DisplayMode":null,"Locale":58,"Name":"Educational Consultant","Type":"DAC Category","DisplayName":null,"Priority":4}],"EntryPoints":null,"Chain":null,"Description":null,"Amenities":null,"PaymentMethods":null,"Status":0,"StatusModified":"0001-01-01T00:00:00","Verified":false,"Valid":false,"VersionCode":null,"CreatedBy":"SylvanAPI-BETA-Saliha","Created":"2018-10-30T14:50:30.8418443Z","ModifiedBy":"SylvanAPI-BEta","Modified":"2019-03-27T17:24:19.851789Z","DataSource":"DAC.LDM.SylvanService","AdditionalAddressLines":null,"MainContact":null,"PrimaryEmailAddress":"Bend.OR@sylvanlearning.com","PhotoURLs":null,"AdditionalMediaURLs":null,"OtherURLs":null,"Keywords_Specialties":null,"Credentials_Certifications":null,"Products":null,"Services":null,"Brands":null,"Year_Founded":null,"Professional_Associations":null,"Tags":null,"Employee_Size":null,"AreasServed":["Berrie"],"Languages":null,"AlternateHomePageURL":[{"Id":null,"URL":"http://locations.sylvanlearning.com/us/bend-or","Name":null,"DisplayName":null,"Description":null,"Error":null}],"VerificationSVCResults":null,"IsMainAddressTransfered":false,"CustomObjects":null},"Created":"2019-03-27T17:24:19.851789","CreatedBy":"SylvanAPI-BEta"}]</t>
+  </si>
+  <si>
+    <t>Get Account</t>
+  </si>
+  <si>
+    <t>Ocp-Apim-Subscription-Key,c5c4053a627f4e449ab85b69125e373f</t>
+  </si>
+  <si>
+    <t>{"AccountId":"a6b37f9f-3867-4eb9-92bd-eb3330011f3b","AccountName":"Mountain's Gear's Neo BETA","PhoneNumber":"9500041445","Address":"VB 216/6 Janakpuri","City":"Delhi","Province":"DL","PostalCode":"110064","Country":"IN","CreateDate":"2020-01-15T21:04:01.913","UpdateDate":"2020-01-15T21:04:01.913","CreatorName":"mrahim@dacgroup.com","HasChildren":false,"PrimaryContactName":null,"PrimaryContactPhone":null,"PrimaryContactEmail":null,"ResellerId":"614cf1a4-cae7-4408-b6c3-c99c1c8d954f"}</t>
+  </si>
+  <si>
+    <t>accountId,a6b37f9f-3867-4eb9-92bd-eb3330011f3b</t>
+  </si>
+  <si>
+    <t>https://dataanywherebeta.azure-api.net/accounts-api/account</t>
+  </si>
+  <si>
+    <t>AccountsAPI_START</t>
+  </si>
+  <si>
+    <t>AccountsAPI_END</t>
+  </si>
+  <si>
+    <t>Get Accounts</t>
+  </si>
+  <si>
+    <t>https://dataanywherebeta.azure-api.net/accounts-api/accounts</t>
+  </si>
+  <si>
+    <t>[{"AccountId":"a6b37f9f-3867-4eb9-92bd-eb3330011f3b","AccountName":"Mountain's Gear's Neo BETA","PhoneNumber":"9500041445","HasChildren":false}]</t>
+  </si>
+  <si>
+    <t>LocationWriteAPI_START</t>
+  </si>
+  <si>
+    <t>LocationWriteAPI_END</t>
   </si>
 </sst>
 </file>
@@ -280,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -308,6 +345,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -779,18 +817,265 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C34382D-1C7F-4057-B1C8-D7F3111724BD}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H5 H11:H13" xr:uid="{6C167517-751F-455B-A196-89F837878FC8}">
+      <formula1>"RUN,NO-RUN"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{05FB60F5-BD7F-4287-AEC6-E493B41EA09D}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{0D1725C2-7243-4333-A536-C4D8493F1865}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.28515625" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="56.28515625" customWidth="1"/>
+    <col min="3" max="3" width="57.28515625" customWidth="1"/>
     <col min="4" max="4" width="21.140625" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>

--- a/data/API.xlsx
+++ b/data/API.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneeshc\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31FAE77-17BE-4A8C-A669-3B5A362682D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E5CAA6-2EBA-4C0F-ADF7-F8C1886171B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-30" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="87">
   <si>
     <t>Execution</t>
   </si>
@@ -231,13 +231,73 @@
   </si>
   <si>
     <t>LocationWriteAPI_END</t>
+  </si>
+  <si>
+    <t>Get Account with invalid Subscription</t>
+  </si>
+  <si>
+    <t>Ocp-Apim-Subscription-Key,c5c4053a627f4e449ab85b69125e373g</t>
+  </si>
+  <si>
+    <t>{ "statusCode": 401, "message": "Access denied due to invalid subscription key. Make sure to provide a valid key for an active subscription." }</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>Get Account with invalid account ID</t>
+  </si>
+  <si>
+    <t>accountId,a6b37f9f-3867-4eb9-92bd-eb3330011f3c</t>
+  </si>
+  <si>
+    <t>{"Message":"AccountID:a6b37f9f-3867-4eb9-92bd-eb3330011f3c is not bound to the current subscription."}</t>
+  </si>
+  <si>
+    <t>Get Accounts By inValid Subscription</t>
+  </si>
+  <si>
+    <t>LocationReadAPI_START</t>
+  </si>
+  <si>
+    <t>https://dataanywherebeta.azure-api.net/locations-api-read/location</t>
+  </si>
+  <si>
+    <t>Ocp-Apim-Subscription-Key,618a620ee3214799b422537a03d658b9</t>
+  </si>
+  <si>
+    <t>{"AccountID":"af70da81-0459-47a2-b3ae-9daab0c95834","LocationID":"773e82cf-e2ad-4305-9c40-01bd8c6bbd42","LocationNumber":"9000224474","ReferenceCode":"2202024","CreatedBy":"chappel.mann@gmail.com","ModifiedBy":"chappel.mann@gmail.com","Created":"2020-01-25T23:40:30.9314645Z","Modified":"2020-01-25T23:40:42.585226Z","LocationData":{"KeyFields":{"AutoDisplayPoint":"{\"Description\":null,\"DisplayMode\":null,\"Navigation\":0,\"Precision\":2,\"Type\":0,\"VerificationType\":3,\"Latitude\":24.89961,\"Longitude\":91.8751899,\"Heading\":null,\"Pitch\":null,\"Zoom\":null,\"Pin\":null}"},"DisplayPoint":{"Type":"Calculated","Latitude":24.89961,"Longitude":91.875189,"VerificationType":"DAC_Google"},"BusinessStatus":"Open","Status":"Active","BusinessName":{"Name":"The Mad Grill","LongName":"The Mad Grill","Locale":90},"PrimaryAddress":{"AddressLine1":"Manik Pir Road","AddressLine2":"Nayasarak Point","Locality":"Sylhet","PostalCode":"3100","CountryCode":"BD"},"PhoneNumbers":{"PrimaryPhoneNumber":"+8801954556677"},"MediaURLs":{"FacebookURL":"https://www.facebook.com/themadgrill/","TwitterURL":"https://www.google.com/maps?cid=9696671651361504064","LinkedInURL":"https://www.bing.com/maps?osid=05f2b478-fcec-46cf-8cec-fd03e90e9d66&amp;cp=24.900464~91.869624&amp;lvl=16&amp;imgid=28e83f0e-8669-46a5-93c8-a5957edede11&amp;v=2&amp;sV=2&amp;form=S00027","PinterestURL":"https://foursquare.com/v/mad-grill/5b8905c03149b9002c0da132","SocialNetworkURL":"https://www.tripadvisor.com/Restaurant_Review-g667997-d10825103-Reviews-The_Mad_Grill-Sylhet_City_Sylhet_Division.html"},"BusinessCategories":{"Category1":"Restaurant"}}}</t>
+  </si>
+  <si>
+    <t>LocationNumber,9000224474</t>
+  </si>
+  <si>
+    <t>Get Location</t>
+  </si>
+  <si>
+    <t>Get Location with invalid location number</t>
+  </si>
+  <si>
+    <t>{"Message":"Location with LocationNumber = 90002244745 not found for the account key specified."}</t>
+  </si>
+  <si>
+    <t>LocationNumber,90002244745</t>
+  </si>
+  <si>
+    <t>Ocp-Apim-Subscription-Key,618a620ee3214799b422537a03d658b8</t>
+  </si>
+  <si>
+    <t>LocationReadAPI_END</t>
+  </si>
+  <si>
+    <t>https://dataanywherebeta.azure-api.net/locations-api-write/location</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +343,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -317,7 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -346,6 +413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -818,17 +886,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C34382D-1C7F-4057-B1C8-D7F3111724BD}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="74.42578125" customWidth="1"/>
     <col min="4" max="4" width="61.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44.5703125" customWidth="1"/>
@@ -875,7 +943,7 @@
       <c r="B3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -894,23 +962,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="13"/>
+        <v>67</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="F4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>64</v>
+        <v>70</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>1</v>
@@ -919,147 +988,315 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="C16" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+      <c r="G23" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="C24" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>66</v>
       </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H5 H11:H13" xr:uid="{6C167517-751F-455B-A196-89F837878FC8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14:H16 H3:H7 H22:H24" xr:uid="{6C167517-751F-455B-A196-89F837878FC8}">
       <formula1>"RUN,NO-RUN"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{05FB60F5-BD7F-4287-AEC6-E493B41EA09D}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{0D1725C2-7243-4333-A536-C4D8493F1865}"/>
+    <hyperlink ref="C24" r:id="rId1" xr:uid="{83C83BCB-B139-4A51-8B0B-D275991D9510}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/data/API.xlsx
+++ b/data/API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneeshc\git\DACAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E5CAA6-2EBA-4C0F-ADF7-F8C1886171B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21563476-4DA6-4858-A420-D64A2BCB035B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-30" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="107">
   <si>
     <t>Execution</t>
   </si>
@@ -203,101 +203,161 @@
     <t>Ocp-Apim-Subscription-Key,c5c4053a627f4e449ab85b69125e373f</t>
   </si>
   <si>
+    <t>accountId,a6b37f9f-3867-4eb9-92bd-eb3330011f3b</t>
+  </si>
+  <si>
+    <t>https://dataanywherebeta.azure-api.net/accounts-api/account</t>
+  </si>
+  <si>
+    <t>AccountsAPI_START</t>
+  </si>
+  <si>
+    <t>AccountsAPI_END</t>
+  </si>
+  <si>
+    <t>Get Accounts</t>
+  </si>
+  <si>
+    <t>https://dataanywherebeta.azure-api.net/accounts-api/accounts</t>
+  </si>
+  <si>
+    <t>[{"AccountId":"a6b37f9f-3867-4eb9-92bd-eb3330011f3b","AccountName":"Mountain's Gear's Neo BETA","PhoneNumber":"9500041445","HasChildren":false}]</t>
+  </si>
+  <si>
+    <t>LocationWriteAPI_START</t>
+  </si>
+  <si>
+    <t>LocationWriteAPI_END</t>
+  </si>
+  <si>
+    <t>Get Account with invalid Subscription</t>
+  </si>
+  <si>
+    <t>Ocp-Apim-Subscription-Key,c5c4053a627f4e449ab85b69125e373g</t>
+  </si>
+  <si>
+    <t>{ "statusCode": 401, "message": "Access denied due to invalid subscription key. Make sure to provide a valid key for an active subscription." }</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>Get Account with invalid account ID</t>
+  </si>
+  <si>
+    <t>accountId,a6b37f9f-3867-4eb9-92bd-eb3330011f3c</t>
+  </si>
+  <si>
+    <t>{"Message":"AccountID:a6b37f9f-3867-4eb9-92bd-eb3330011f3c is not bound to the current subscription."}</t>
+  </si>
+  <si>
+    <t>Get Accounts By inValid Subscription</t>
+  </si>
+  <si>
+    <t>LocationReadAPI_START</t>
+  </si>
+  <si>
+    <t>https://dataanywherebeta.azure-api.net/locations-api-read/location</t>
+  </si>
+  <si>
+    <t>Ocp-Apim-Subscription-Key,618a620ee3214799b422537a03d658b9</t>
+  </si>
+  <si>
+    <t>{"AccountID":"af70da81-0459-47a2-b3ae-9daab0c95834","LocationID":"773e82cf-e2ad-4305-9c40-01bd8c6bbd42","LocationNumber":"9000224474","ReferenceCode":"2202024","CreatedBy":"chappel.mann@gmail.com","ModifiedBy":"chappel.mann@gmail.com","Created":"2020-01-25T23:40:30.9314645Z","Modified":"2020-01-25T23:40:42.585226Z","LocationData":{"KeyFields":{"AutoDisplayPoint":"{\"Description\":null,\"DisplayMode\":null,\"Navigation\":0,\"Precision\":2,\"Type\":0,\"VerificationType\":3,\"Latitude\":24.89961,\"Longitude\":91.8751899,\"Heading\":null,\"Pitch\":null,\"Zoom\":null,\"Pin\":null}"},"DisplayPoint":{"Type":"Calculated","Latitude":24.89961,"Longitude":91.875189,"VerificationType":"DAC_Google"},"BusinessStatus":"Open","Status":"Active","BusinessName":{"Name":"The Mad Grill","LongName":"The Mad Grill","Locale":90},"PrimaryAddress":{"AddressLine1":"Manik Pir Road","AddressLine2":"Nayasarak Point","Locality":"Sylhet","PostalCode":"3100","CountryCode":"BD"},"PhoneNumbers":{"PrimaryPhoneNumber":"+8801954556677"},"MediaURLs":{"FacebookURL":"https://www.facebook.com/themadgrill/","TwitterURL":"https://www.google.com/maps?cid=9696671651361504064","LinkedInURL":"https://www.bing.com/maps?osid=05f2b478-fcec-46cf-8cec-fd03e90e9d66&amp;cp=24.900464~91.869624&amp;lvl=16&amp;imgid=28e83f0e-8669-46a5-93c8-a5957edede11&amp;v=2&amp;sV=2&amp;form=S00027","PinterestURL":"https://foursquare.com/v/mad-grill/5b8905c03149b9002c0da132","SocialNetworkURL":"https://www.tripadvisor.com/Restaurant_Review-g667997-d10825103-Reviews-The_Mad_Grill-Sylhet_City_Sylhet_Division.html"},"BusinessCategories":{"Category1":"Restaurant"}}}</t>
+  </si>
+  <si>
+    <t>LocationNumber,9000224474</t>
+  </si>
+  <si>
+    <t>Get Location</t>
+  </si>
+  <si>
+    <t>Get Location with invalid location number</t>
+  </si>
+  <si>
+    <t>{"Message":"Location with LocationNumber = 90002244745 not found for the account key specified."}</t>
+  </si>
+  <si>
+    <t>LocationNumber,90002244745</t>
+  </si>
+  <si>
+    <t>Ocp-Apim-Subscription-Key,618a620ee3214799b422537a03d658b8</t>
+  </si>
+  <si>
+    <t>LocationReadAPI_END</t>
+  </si>
+  <si>
+    <t>https://dataanywherebeta.azure-api.net/locations-api-write/location</t>
+  </si>
+  <si>
     <t>{"AccountId":"a6b37f9f-3867-4eb9-92bd-eb3330011f3b","AccountName":"Mountain's Gear's Neo BETA","PhoneNumber":"9500041445","Address":"VB 216/6 Janakpuri","City":"Delhi","Province":"DL","PostalCode":"110064","Country":"IN","CreateDate":"2020-01-15T21:04:01.913","UpdateDate":"2020-01-15T21:04:01.913","CreatorName":"mrahim@dacgroup.com","HasChildren":false,"PrimaryContactName":null,"PrimaryContactPhone":null,"PrimaryContactEmail":null,"ResellerId":"614cf1a4-cae7-4408-b6c3-c99c1c8d954f"}</t>
   </si>
   <si>
-    <t>accountId,a6b37f9f-3867-4eb9-92bd-eb3330011f3b</t>
-  </si>
-  <si>
-    <t>https://dataanywherebeta.azure-api.net/accounts-api/account</t>
-  </si>
-  <si>
-    <t>AccountsAPI_START</t>
-  </si>
-  <si>
-    <t>AccountsAPI_END</t>
-  </si>
-  <si>
-    <t>Get Accounts</t>
-  </si>
-  <si>
-    <t>https://dataanywherebeta.azure-api.net/accounts-api/accounts</t>
-  </si>
-  <si>
-    <t>[{"AccountId":"a6b37f9f-3867-4eb9-92bd-eb3330011f3b","AccountName":"Mountain's Gear's Neo BETA","PhoneNumber":"9500041445","HasChildren":false}]</t>
-  </si>
-  <si>
-    <t>LocationWriteAPI_START</t>
-  </si>
-  <si>
-    <t>LocationWriteAPI_END</t>
-  </si>
-  <si>
-    <t>Get Account with invalid Subscription</t>
-  </si>
-  <si>
-    <t>Ocp-Apim-Subscription-Key,c5c4053a627f4e449ab85b69125e373g</t>
-  </si>
-  <si>
-    <t>{ "statusCode": 401, "message": "Access denied due to invalid subscription key. Make sure to provide a valid key for an active subscription." }</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
-    <t>Get Account with invalid account ID</t>
-  </si>
-  <si>
-    <t>accountId,a6b37f9f-3867-4eb9-92bd-eb3330011f3c</t>
-  </si>
-  <si>
-    <t>{"Message":"AccountID:a6b37f9f-3867-4eb9-92bd-eb3330011f3c is not bound to the current subscription."}</t>
-  </si>
-  <si>
-    <t>Get Accounts By inValid Subscription</t>
-  </si>
-  <si>
-    <t>LocationReadAPI_START</t>
-  </si>
-  <si>
-    <t>https://dataanywherebeta.azure-api.net/locations-api-read/location</t>
-  </si>
-  <si>
-    <t>Ocp-Apim-Subscription-Key,618a620ee3214799b422537a03d658b9</t>
-  </si>
-  <si>
-    <t>{"AccountID":"af70da81-0459-47a2-b3ae-9daab0c95834","LocationID":"773e82cf-e2ad-4305-9c40-01bd8c6bbd42","LocationNumber":"9000224474","ReferenceCode":"2202024","CreatedBy":"chappel.mann@gmail.com","ModifiedBy":"chappel.mann@gmail.com","Created":"2020-01-25T23:40:30.9314645Z","Modified":"2020-01-25T23:40:42.585226Z","LocationData":{"KeyFields":{"AutoDisplayPoint":"{\"Description\":null,\"DisplayMode\":null,\"Navigation\":0,\"Precision\":2,\"Type\":0,\"VerificationType\":3,\"Latitude\":24.89961,\"Longitude\":91.8751899,\"Heading\":null,\"Pitch\":null,\"Zoom\":null,\"Pin\":null}"},"DisplayPoint":{"Type":"Calculated","Latitude":24.89961,"Longitude":91.875189,"VerificationType":"DAC_Google"},"BusinessStatus":"Open","Status":"Active","BusinessName":{"Name":"The Mad Grill","LongName":"The Mad Grill","Locale":90},"PrimaryAddress":{"AddressLine1":"Manik Pir Road","AddressLine2":"Nayasarak Point","Locality":"Sylhet","PostalCode":"3100","CountryCode":"BD"},"PhoneNumbers":{"PrimaryPhoneNumber":"+8801954556677"},"MediaURLs":{"FacebookURL":"https://www.facebook.com/themadgrill/","TwitterURL":"https://www.google.com/maps?cid=9696671651361504064","LinkedInURL":"https://www.bing.com/maps?osid=05f2b478-fcec-46cf-8cec-fd03e90e9d66&amp;cp=24.900464~91.869624&amp;lvl=16&amp;imgid=28e83f0e-8669-46a5-93c8-a5957edede11&amp;v=2&amp;sV=2&amp;form=S00027","PinterestURL":"https://foursquare.com/v/mad-grill/5b8905c03149b9002c0da132","SocialNetworkURL":"https://www.tripadvisor.com/Restaurant_Review-g667997-d10825103-Reviews-The_Mad_Grill-Sylhet_City_Sylhet_Division.html"},"BusinessCategories":{"Category1":"Restaurant"}}}</t>
-  </si>
-  <si>
-    <t>LocationNumber,9000224474</t>
-  </si>
-  <si>
-    <t>Get Location</t>
-  </si>
-  <si>
-    <t>Get Location with invalid location number</t>
-  </si>
-  <si>
-    <t>{"Message":"Location with LocationNumber = 90002244745 not found for the account key specified."}</t>
-  </si>
-  <si>
-    <t>LocationNumber,90002244745</t>
-  </si>
-  <si>
-    <t>Ocp-Apim-Subscription-Key,618a620ee3214799b422537a03d658b8</t>
-  </si>
-  <si>
-    <t>LocationReadAPI_END</t>
-  </si>
-  <si>
-    <t>https://dataanywherebeta.azure-api.net/locations-api-write/location</t>
+    <t>LocationID,05f6fee4-553d-414c-bd80-4f82a3f7fc41</t>
+  </si>
+  <si>
+    <t>LocationID,05f6fee4-553d-414c-bd80-4f82a3f7fc42</t>
+  </si>
+  <si>
+    <t>{"AccountID":"a6b37f9f-3867-4eb9-92bd-eb3330011f3b","LocationID":"05f6fee4-553d-414c-bd80-4f82a3f7fc41","LocationNumber":"9000224268","CreatedBy":"dac_ra_beta1@dacgroup.com","ModifiedBy":"dac_ra_beta1@dacgroup.com","Created":"2020-01-15T21:13:08.9808306Z","Modified":"2020-01-15T21:13:26.8742665Z","LocationData":{"KeyFields":{"AutoDisplayPoint":"{\"Description\":null,\"DisplayMode\":null,\"Navigation\":0,\"Precision\":3,\"Type\":0,\"VerificationType\":3,\"Latitude\":50.4853437,\"Longitude\":-104.6174239,\"Heading\":null,\"Pitch\":null,\"Zoom\":null,\"Pin\":null}"},"DisplayPoint":{"Type":"Calculated","Latitude":50.485343,"Longitude":-104.617423,"VerificationType":"DAC_Google"},"BusinessStatus":"Open","Status":"Active","BusinessName":{"Name":"Mountain Gear","LongName":"Mountain Gear B","Locale":48},"PrimaryAddress":{"AddressLine1":"1180 W State St","Locality":"Regina","Region":"SK","PostalCode":"S4R 8E2","CountryCode":"CA"},"PhoneNumbers":{"PrimaryPhoneNumber":"+13065430236"},"MediaURLs":{},"BusinessCategories":{"Category1":"Outdoor Sports Store"},"PhotoURLs":[]}}</t>
+  </si>
+  <si>
+    <t>Get Location with invalid location ID</t>
+  </si>
+  <si>
+    <t>Get Account with invalid Subscription and Account ID</t>
+  </si>
+  <si>
+    <t>GetAccountByAccountID</t>
+  </si>
+  <si>
+    <t>Get Location with invalid location number and inValid Subscription</t>
+  </si>
+  <si>
+    <t>Get Location By inValid Subscription &amp; location ID</t>
+  </si>
+  <si>
+    <t>Get Locations</t>
+  </si>
+  <si>
+    <t>Get Locations By inValid Subscription</t>
+  </si>
+  <si>
+    <t>Get Locations with invalid account ID</t>
+  </si>
+  <si>
+    <t>Get Locations By inValid Subscription &amp; account id ID</t>
+  </si>
+  <si>
+    <t>https://dataanywherebeta.azure-api.net/locations-api-write/locations</t>
+  </si>
+  <si>
+    <t>AccountID,a6b37f9f-3867-4eb9-92bd-eb3330011f3b</t>
+  </si>
+  <si>
+    <t>AccountID,a6b37f9f-3867-4eb9-92bd-eb3330011f3c</t>
+  </si>
+  <si>
+    <t>{"ContinuationToken":"%5b%7b%22token%22%3a%22%2bRID%3a%7efxp-AKdCbvNLsQIAAAAACA%3d%3d%23RT%3a1%23TRC%3a25%23ISV%3a2%23IEO%3a65551%23FPC%3aAggKAAAAACAAAAoAAAAAIAAACgAAAAAgAAAoAEIxAPgDABqAYQAAA5mBMYADgEeADoBFgQHAAGCbgXEAAGA2gDEFAMA%3d%22%2c%22range%22%3a%7b%22min%22%3a%22%22%2c%22max%22%3a%2205C1E1EDCF6FCA%22%7d%7d%5d","Count":25,"Data":[{"LocationID":"3a000feb-cc28-439e-86fd-a00cedbb5288","LocationNumber":"9000224316","ReferenceCode":"9003017","LongBusinessName":"Mountain Gear C","PrimaryPhoneNumber":"+17054884444","BusinessStatus":"Open","Status":"Active","PrimaryAddress":{"AddressLine1":"85 Dunlop St W","Locality":"Barrie","Region":"ON","PostalCode":"L4N 1A5","CountryCode":"CA"}},{"LocationID":"24dffa05-4d3c-40c9-930e-2116ad20a36f","LocationNumber":"9000224314","LongBusinessName":"Mountain Gear C","PrimaryPhoneNumber":"+17054884444","BusinessStatus":"Open","Status":"Active","PrimaryAddress":{"AddressLine1":"85 Dunlop St W","Locality":"Barrie","Region":"ON","PostalCode":"L4N 1A5","CountryCode":"CA"}},{"LocationID":"0a2cc9c6-a838-4668-885b-53ce1fd8b7e0","LocationNumber":"9000224312","ReferenceCode":"9003014","LongBusinessName":"Mountain Gear A","PrimaryPhoneNumber":"+14076366493","BusinessStatus":"Open","Status":"Active","PrimaryAddress":{"AddressLine1":"1950 6th Ave","Locality":"Seattle","Region":"WA","PostalCode":"98101","CountryCode":"US"}},{"LocationID":"d2696bc5-5a8b-4e41-be76-96a91818ebcf","LocationNumber":"9000224309","ReferenceCode":"9002995","LongBusinessName":"Mountain Gear C","PrimaryPhoneNumber":"+14356353188","BusinessStatus":"Open","Status":"Active","PrimaryAddress":{"AddressLine1":"1180 W State St","Locality":"Hurricane","Region":"UT","PostalCode":"84737","CountryCode":"US"}},{"LocationID":"2e174a11-aeab-463f-8872-70b249f858bb","LocationNumber":"9000224310","ReferenceCode":"Inceptos","LongBusinessName":"Mountain Gear B","PrimaryPhoneNumber":"+13064457475","BusinessStatus":"Open","Status":"Active","PrimaryAddress":{"AddressLine1":"11102 Railway Ave E","Locality":"North Battleford","Region":"SK","PostalCode":"S9A 2X6","CountryCode":"CA"}},{"LocationID":"d2df7f02-ae69-406d-a8dd-5b30d27b997a","LocationNumber":"9000224307","ReferenceCode":"9003003","LongBusinessName":"Mountain Gear A","PrimaryPhoneNumber":"+12063749596","BusinessStatus":"Open","Status":"Active","PrimaryAddress":{"AddressLine1":"1950 6th Ave","Locality":"Seattle","Region":"WA","PostalCode":"98101","CountryCode":"US"}},{"LocationID":"e3533dc1-4f61-460a-9697-0a7648f43e94","LocationNumber":"9000224306","LongBusinessName":"Mountain Gear B","PrimaryPhoneNumber":"+13069334262","BusinessStatus":"Open","Status":"Active","PrimaryAddress":{"AddressLine1":"115 Marquis Dr W","Locality":"Saskatoon","Region":"SK","PostalCode":"S7R 1C7","CountryCode":"CA"}},{"LocationID":"d142a839-a904-423d-a0b4-369642ad7600","LocationNumber":"9000224302","LongBusinessName":"Mountain Gear C","PrimaryPhoneNumber":"+14356353188","BusinessStatus":"Open","Status":"Active","PrimaryAddress":{"AddressLine1":"1180 W State St","Locality":"Hurricane","Region":"UT","PostalCode":"84737","CountryCode":"US"}},{"LocationID":"b39f824b-5575-4c54-9c56-20fb93c47c0b","LocationNumber":"9000224301","ReferenceCode":"9003026","LongBusinessName":"Mountain Gear B","PrimaryPhoneNumber":"+12063749596","BusinessStatus":"Open","Status":"Active","PrimaryAddress":{"AddressLine1":"1950 6th Ave","Locality":"Seattle","Region":"WA","PostalCode":"98101","CountryCode":"US"}},{"LocationID":"164c0a1f-3f7e-4eef-b44f-be55711a801f","LocationNumber":"9000224297","ReferenceCode":"9003027","LongBusinessName":"Egestas","PrimaryPhoneNumber":"+14068834125","BusinessStatus":"Open","Status":"Active","PrimaryAddress":{"AddressLine1":"111 Fulton St","Locality":"New York","Region":"NY","PostalCode":"10038","CountryCode":"US"}},{"LocationID":"35a434be-ccd6-489f-bb31-f2e4d4dd99ac","LocationNumber":"9000224294","ReferenceCode":"9003015","LongBusinessName":"Mountain Gear B","PrimaryPhoneNumber":"+12063749596","BusinessStatus":"Open","Status":"Active","PrimaryAddress":{"AddressLine1":"1950 6th Ave","Locality":"Seattle","Region":"WA","PostalCode":"98101","CountryCode":"US"}},{"LocationID":"25d447bf-fcb9-416b-969b-0b4abc5cb40e","LocationNumber":"9000224290","ReferenceCode":"9003011","LongBusinessName":"Mountain Gear B","PrimaryPhoneNumber":"+13064457475","BusinessStatus":"Open","Status":"Active","PrimaryAddress":{"AddressLine1":"11102 Railway Ave E","Locality":"North Battleford","Region":"SK","PostalCode":"S9A 2X6","CountryCode":"CA"}},{"LocationID":"e6f6ded5-0f60-4ca3-bbba-adbb0b202aef","LocationNumber":"9000224291","ReferenceCode":"9003009","LongBusinessName":"Mountain Gear B","PrimaryPhoneNumber":"+12703885347","BusinessStatus":"Open","Status":"Active","PrimaryAddress":{"AddressLine1":"82 US-62","Locality":"Eddyville","Region":"KY","PostalCode":"42038","CountryCode":"US"}},{"LocationID":"ec91f10c-e5f1-4dc3-9afa-b2e1a5a9e1c4","LocationNumber":"9000224288","ReferenceCode":"9003021","LongBusinessName":"Mountain Gear B","PrimaryPhoneNumber":"+12703885347","BusinessStatus":"Open","Status":"Active","PrimaryAddress":{"AddressLine1":"111 W 40th St","Locality":"New York","Region":"NY","PostalCode":"10018","CountryCode":"US"}},{"LocationID":"0defac7f-aa9d-4b3e-b6a1-b3fc30819ee8","LocationNumber":"9000224284","ReferenceCode":"0702pl","LongBusinessName":"Norauto GDAŃSK","PrimaryPhoneNumber":"+48587694700","BusinessStatus":"Open","Status":"Active","PrimaryAddress":{"AddressLine1":"c.h. auchan","AddressLine2":"ul. szczęśliwa 9","Locality":"gdańsk","PostalCode":"80-176","CountryCode":"PL"}},{"LocationID":"beff059c-38d7-46b0-a9ab-de51cb5068ff","LocationNumber":"9000224281","ReferenceCode":"ID_Ref","LongBusinessName":"Indonesia","PrimaryPhoneNumber":"+626274124921","BusinessStatus":"Open","Status":"Active","PrimaryAddress":{"AddressLine1":"Mediterranea Restaurant by Kamil","AddressLine2":"Mantrijeron","AddressLine3":"Tirtodipuran","Locality":"Yogyakarta City","Region":"YO","PostalCode":"55143","CountryCode":"ID"}},{"LocationID":"ba0fab29-dc33-4020-966e-828d7e903f4e","LocationNumber":"9000224280","ReferenceCode":"9003006","LongBusinessName":"Mountain Gear C","PrimaryPhoneNumber":"+14356353188","BusinessStatus":"Open","Status":"Active","PrimaryAddress":{"AddressLine1":"1180 W State St","Locality":"Hurricane","Region":"UT","PostalCode":"84737","CountryCode":"US"}},{"LocationID":"1af11eee-60f0-4819-937f-e0af65529a4c","LocationNumber":"9000224277","ReferenceCode":"9003028","LongBusinessName":"Mountain Gear C","PrimaryPhoneNumber":"+17054884444","BusinessStatus":"Open","Status":"Active","PrimaryAddress":{"AddressLine1":"85 Dunlop St W","Locality":"Barrie","Region":"ON","PostalCode":"L4N 1A5","CountryCode":"CA"}},{"LocationID":"266f44fb-da1e-4ec8-98eb-28356dd62ab1","LocationNumber":"9000224278","LongBusinessName":"Mountain Gear C","PrimaryPhoneNumber":"+17054884444","BusinessStatus":"Open","Status":"Active","PrimaryAddress":{"AddressLine1":"85 Dunlop St W","Locality":"Barrie","Region":"ON","PostalCode":"L4N 1A5","CountryCode":"CA"}},{"LocationID":"bf123446-fa6a-41dc-975e-a24d840d8096","LocationNumber":"9000224272","ReferenceCode":"9003005","LongBusinessName":"Imperdiet","PrimaryPhoneNumber":"+17054884444","BusinessStatus":"Open","Status":"Active","PrimaryAddress":{"AddressLine1":"85 Dunlop St W","Locality":"Barrie","Region":"ON","PostalCode":"L4N 1A5","CountryCode":"CA"}},{"LocationID":"05f6fee4-553d-414c-bd80-4f82a3f7fc41","LocationNumber":"9000224268","LongBusinessName":"Mountain Gear B","PrimaryPhoneNumber":"+13065430236","BusinessStatus":"Open","Status":"Active","PrimaryAddress":{"AddressLine1":"1180 W State St","Locality":"Regina","Region":"SK","PostalCode":"S4R 8E2","CountryCode":"CA"}},{"LocationID":"a70b1727-afb0-4fee-a57e-556e679cacdc","LocationNumber":"9000224267","ReferenceCode":"9003002","LongBusinessName":"Ultrices","PrimaryPhoneNumber":"+13069334262","BusinessStatus":"Open","Status":"Active","PrimaryAddress":{"AddressLine1":"115 Marquis Dr W","Locality":"Saskatoon","Region":"SK","PostalCode":"S7R 1C7","CountryCode":"CA"}},{"LocationID":"e5bd8e8d-c870-4a46-b04d-4d5baab3eb34","LocationNumber":"9000224263","LongBusinessName":"Mountain Gear B","PrimaryPhoneNumber":"+12503741718","BusinessStatus":"Open","Status":"Active","PrimaryAddress":{"AddressLine1":"1751 Trans-Canada Hwy","Locality":"Kamloops","Region":"BC","PostalCode":"V2C 3Z6","CountryCode":"CA"}},{"LocationID":"3107799d-7aca-43f3-a03f-6e066e78bd83","LocationNumber":"9000224262","LongBusinessName":"Mountain Gear C","PrimaryPhoneNumber":"+13069558669","BusinessStatus":"Open","Status":"Active","PrimaryAddress":{"AddressLine1":"1608 8 St E","Locality":"Saskatoon","Region":"SK","PostalCode":"S7H 0T3","CountryCode":"CA"}},{"LocationID":"a751d7c4-06b5-47e2-979f-c36efbc5aa38","LocationNumber":"9000224261","ReferenceCode":"9003012","LongBusinessName":"Pellentesque","PrimaryPhoneNumber":"+12503741718","BusinessStatus":"Open","Status":"Active","PrimaryAddress":{"AddressLine1":"1751 Trans-Canada Hwy","Locality":"Kamloops","Region":"BC","PostalCode":"V2C 3Z6","CountryCode":"CA"}}]}</t>
+  </si>
+  <si>
+    <t>https://dataanywhere-api-beta.azurewebsites.net/api/internal/usage</t>
+  </si>
+  <si>
+    <t>Get Usage(Internal)</t>
+  </si>
+  <si>
+    <t>Ocp-Apim-Subscription-Key,22C71F28A3D149B49E4A22B6F043B6CF</t>
+  </si>
+  <si>
+    <t>DA_Subscription_START</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,6 +410,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF585858"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -384,7 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -412,8 +484,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -886,25 +960,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C34382D-1C7F-4057-B1C8-D7F3111724BD}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" customWidth="1"/>
-    <col min="3" max="3" width="74.42578125" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" customWidth="1"/>
+    <col min="3" max="3" width="69" customWidth="1"/>
     <col min="4" max="4" width="61.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.5703125" customWidth="1"/>
+    <col min="7" max="7" width="73.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -939,24 +1013,26 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>1</v>
@@ -964,22 +1040,22 @@
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>69</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>1</v>
@@ -988,43 +1064,45 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>72</v>
+      <c r="E5" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>64</v>
+        <v>91</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>1</v>
@@ -1032,107 +1110,105 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C15" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="E15" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>82</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>1</v>
@@ -1140,160 +1216,434 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="18" t="s">
+      <c r="C17" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="3" t="s">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="6" t="s">
+      <c r="C26" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B37" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14:H16 H3:H7 H22:H24" xr:uid="{6C167517-751F-455B-A196-89F837878FC8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H8 H15:H18 H24:H31 H37:H40" xr:uid="{6C167517-751F-455B-A196-89F837878FC8}">
       <formula1>"RUN,NO-RUN"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C24" r:id="rId1" xr:uid="{83C83BCB-B139-4A51-8B0B-D275991D9510}"/>
+    <hyperlink ref="C39" r:id="rId1" xr:uid="{64AC546F-EE73-4966-A05F-FDE15061469F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
